--- a/build/classes/Resources/Database.xlsx
+++ b/build/classes/Resources/Database.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301586AD-3DCB-4E72-B006-79DF173E1F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="680">
   <si>
     <t>Question Number</t>
   </si>
@@ -666,6 +667,372 @@
   </si>
   <si>
     <t>/images/PQ2.png</t>
+  </si>
+  <si>
+    <t>/images/JQ7.png</t>
+  </si>
+  <si>
+    <t>/images/JQ7CA.png</t>
+  </si>
+  <si>
+    <t>/images/JQ7CB.png</t>
+  </si>
+  <si>
+    <t>/images/JQ7CC.png</t>
+  </si>
+  <si>
+    <t>/images/JQ7CD.png</t>
+  </si>
+  <si>
+    <t>/images/JQ8.png</t>
+  </si>
+  <si>
+    <t>/images/JQ9.png</t>
+  </si>
+  <si>
+    <t>/images/JQ10.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, what is the output of the program if the inputs are 1, 2, 3, 4, 5 in that order?</t>
+  </si>
+  <si>
+    <t>/images/JQ11.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, what is the output of the program if the inputs are 5, 4, 3, 2, 1 in that order?</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, what is the output of the program if the input is 2012?</t>
+  </si>
+  <si>
+    <t>No output</t>
+  </si>
+  <si>
+    <t>Compilation Error</t>
+  </si>
+  <si>
+    <t>It is a leap year.</t>
+  </si>
+  <si>
+    <t>It is a common year.</t>
+  </si>
+  <si>
+    <t>/images/JQ13.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console Sum is 4, Product is 4 if the input is 2.</t>
+  </si>
+  <si>
+    <t>/images/CQ3CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ3CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ3CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ3CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console Inputted number is: 3 and number 3's cube is: 27 if the input is 2.</t>
+  </si>
+  <si>
+    <t>/images/CQ4CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ4CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ4CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ4CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console Positive if the input is 2.</t>
+  </si>
+  <si>
+    <t>/images/CQ5CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ5CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ5CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ5CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console Hello, Bob! if the input is Bob.</t>
+  </si>
+  <si>
+    <t>/images/CQ6CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ6CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ6CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ6CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console 15 if the input is 5.</t>
+  </si>
+  <si>
+    <t>/images/CQ7CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ7CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ7CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ7CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console 5040 if the input is 7.</t>
+  </si>
+  <si>
+    <t>/images/CQ8CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ8CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ8CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ8CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console 180000 seconds if the input is 50.</t>
+  </si>
+  <si>
+    <t>/images/CQ9CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ9CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ9CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ9CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console -31 if the inputs are 2 and 33.</t>
+  </si>
+  <si>
+    <t>/images/CQ10CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ10CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ10CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ10CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console 2 if the inputs are 3, 1, 1, 0 in that order.</t>
+  </si>
+  <si>
+    <t>/images/CQ11CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ11CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ11CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ11CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console 71.2 if the inputs are 89 and 20.</t>
+  </si>
+  <si>
+    <t>/images/CQ12CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ12CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ12CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ12CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode, which of the following choices will print to the console 4 if the inputs is Prediction.</t>
+  </si>
+  <si>
+    <t>/images/CQ13CA.png</t>
+  </si>
+  <si>
+    <t>/images/CQ13CB.png</t>
+  </si>
+  <si>
+    <t>/images/CQ13CC.png</t>
+  </si>
+  <si>
+    <t>/images/CQ13CD.png</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console Sum is 4, Product is 4 if the input is 2.</t>
+  </si>
+  <si>
+    <t>`Sum is ${number + 2}, Product is ${number * 2}`</t>
+  </si>
+  <si>
+    <t>`Sum is (number + 2), Product is (number * 2)`</t>
+  </si>
+  <si>
+    <t>Sum is ${number + 2}, Product is ${number * 2}</t>
+  </si>
+  <si>
+    <t>`Sum is $(number + 2), Product is $(number * 2)`</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console Inputted number is: 3 and number 3's cube is: 27 if the input is 2.</t>
+  </si>
+  <si>
+    <t>/images/JSQ3.png</t>
+  </si>
+  <si>
+    <t>/images/JSQ4.png</t>
+  </si>
+  <si>
+    <t>Inputted number is: ${num} and number ${num}'s cube is: ${num * num * num}</t>
+  </si>
+  <si>
+    <t>`Inputted number is: ${num} and number ${num}'s cube is: ${num * num * num}`</t>
+  </si>
+  <si>
+    <t>`Inputted number is: {num} and number {num}'s cube is: {num * num * num}`</t>
+  </si>
+  <si>
+    <t>`Inputted number is: $(num) and number $(num)'s cube is: $(num * num * num)`</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console Positive if the input is 2.</t>
+  </si>
+  <si>
+    <t>/images/JSQ5.png</t>
+  </si>
+  <si>
+    <t>num &lt; 0</t>
+  </si>
+  <si>
+    <t>num == 0</t>
+  </si>
+  <si>
+    <t>num &gt; 0</t>
+  </si>
+  <si>
+    <t>num != 2</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console Hello, Bob! if the input is Bob.</t>
+  </si>
+  <si>
+    <t>/images/JSQ6.png</t>
+  </si>
+  <si>
+    <t>/images/JSQ7.png</t>
+  </si>
+  <si>
+    <t>Hello, ${name}!</t>
+  </si>
+  <si>
+    <t>`Hello, {name}!`</t>
+  </si>
+  <si>
+    <t>`Hello, $(name)!`</t>
+  </si>
+  <si>
+    <t>`Hello, ${name}!`</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console 15 if the input is 5.</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console 5040 if the input is 7.</t>
+  </si>
+  <si>
+    <t>/images/JSQ8.png</t>
+  </si>
+  <si>
+    <t>accumulator += i</t>
+  </si>
+  <si>
+    <t>accumulator *= i</t>
+  </si>
+  <si>
+    <t>i += accumulator</t>
+  </si>
+  <si>
+    <t>i *= accumulator</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console Ong Bob if the inputs are Bob and Ong.</t>
+  </si>
+  <si>
+    <t>/images/PQ3.png</t>
+  </si>
+  <si>
+    <t>/images/PQ4.png</t>
+  </si>
+  <si>
+    <t>/images/PQ5.png</t>
+  </si>
+  <si>
+    <t>%c %d</t>
+  </si>
+  <si>
+    <t>%d %d</t>
+  </si>
+  <si>
+    <t>%s %s</t>
+  </si>
+  <si>
+    <t>%f %f</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console 7.0685834705770345 if the input is 1.5.</t>
+  </si>
+  <si>
+    <t>pi * radiusinput * 2</t>
+  </si>
+  <si>
+    <t>pi** radiusinput**2</t>
+  </si>
+  <si>
+    <t>pi** radiusinput * 2</t>
+  </si>
+  <si>
+    <t>pi * radiusinput**2</t>
+  </si>
+  <si>
+    <t>Given the sourcecode with the missing piece (missing piece is identified by *insert here*), which of the following choices will complete the program to make it print to the console 375.0 if the inputs are 25 and 30.</t>
+  </si>
+  <si>
+    <t>base * height / 2</t>
+  </si>
+  <si>
+    <t>base * height / 4</t>
+  </si>
+  <si>
+    <t>base * height / 6</t>
+  </si>
+  <si>
+    <t>base * height / 8</t>
   </si>
   <si>
     <t>What is the first object-oriented programming language?</t>
@@ -1153,6 +1520,9 @@
     <t>Syntax Error</t>
   </si>
   <si>
+    <t>/images/Java_Q1.png</t>
+  </si>
+  <si>
     <t>What is the expected result of this code?</t>
   </si>
   <si>
@@ -1165,6 +1535,9 @@
     <t>Hello World!!    Username!!!</t>
   </si>
   <si>
+    <t>/images/Java_Q2.png</t>
+  </si>
+  <si>
     <t>Given this code, what should be the expected result if the user inputs the string "fox"?</t>
   </si>
   <si>
@@ -1180,6 +1553,9 @@
     <t>x o f</t>
   </si>
   <si>
+    <t>/images/Java_Q3.png</t>
+  </si>
+  <si>
     <t>If the user inputs the number "10", what should be the result?</t>
   </si>
   <si>
@@ -1189,12 +1565,21 @@
     <t>10 + 1010 + 101010</t>
   </si>
   <si>
+    <t>/images/Java_Q4.png</t>
+  </si>
+  <si>
     <t>From the code snippet, what should be the result?</t>
   </si>
   <si>
+    <t>/images/Java_Q5.png</t>
+  </si>
+  <si>
     <t>If the user inputs "14", what is the result of the program?</t>
   </si>
   <si>
+    <t>/images/Java_Q6.png</t>
+  </si>
+  <si>
     <t>What should be placed in the blanks to get an output of "der" if the user input is "red"?</t>
   </si>
   <si>
@@ -1210,6 +1595,9 @@
     <t>result = ch[word];</t>
   </si>
   <si>
+    <t>/images/Java_Q7.png</t>
+  </si>
+  <si>
     <t>If the input for the first number is 6 and the input for the second number is 3, what should be in the blank to get a result of 0?</t>
   </si>
   <si>
@@ -1225,6 +1613,9 @@
     <t>a - (div * b)</t>
   </si>
   <si>
+    <t>/images/Java_Q8.png</t>
+  </si>
+  <si>
     <t>From the code snippet, which line contains an error?</t>
   </si>
   <si>
@@ -1240,6 +1631,9 @@
     <t>System.out.println("Not found");</t>
   </si>
   <si>
+    <t>/images/Java_Q9.png</t>
+  </si>
+  <si>
     <t>What is the expected result from this code?</t>
   </si>
   <si>
@@ -1255,6 +1649,9 @@
     <t>oldHoldold</t>
   </si>
   <si>
+    <t>/images/Java_Q10.png</t>
+  </si>
+  <si>
     <t>Where is the error in the given code?</t>
   </si>
   <si>
@@ -1270,6 +1667,9 @@
     <t>No error in the code</t>
   </si>
   <si>
+    <t>/images/Java_Q11.png</t>
+  </si>
+  <si>
     <t>What should be placed inside the blank to get the correct count of odd and even numbers in the program?</t>
   </si>
   <si>
@@ -1285,6 +1685,9 @@
     <t>nums[i] % 5 = 0</t>
   </si>
   <si>
+    <t>/images/Java_Q12.png</t>
+  </si>
+  <si>
     <t>What line in the code results in an error?</t>
   </si>
   <si>
@@ -1297,63 +1700,27 @@
     <t>System.out.println("Total number of characters in a string: " + count);</t>
   </si>
   <si>
-    <t>/images/Java_Q1.png</t>
+    <t>/images/Java_Q13.png</t>
+  </si>
+  <si>
+    <t>If you input "a1", what will be the expected result?</t>
+  </si>
+  <si>
+    <t>Character a1 is an alphabet</t>
+  </si>
+  <si>
+    <t>Character a1 is not an alphabet</t>
+  </si>
+  <si>
+    <t>Character a is an alphabet</t>
+  </si>
+  <si>
+    <t>Character a is not an alphabet</t>
   </si>
   <si>
     <t>/images/C_Q1.png</t>
   </si>
   <si>
-    <t>/images/Java_Q2.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q3.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q4.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q5.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q6.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q7.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q8.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q9.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q10.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q11.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q12.png</t>
-  </si>
-  <si>
-    <t>/images/Java_Q13.png</t>
-  </si>
-  <si>
-    <t>If you input "a1", what will be the expected result?</t>
-  </si>
-  <si>
-    <t>Character a1 is an alphabet</t>
-  </si>
-  <si>
-    <t>Character a1 is not an alphabet</t>
-  </si>
-  <si>
-    <t>Character a is an alphabet</t>
-  </si>
-  <si>
-    <t>Character a is not an alphabet</t>
-  </si>
-  <si>
     <t>Which line has an error in the code?</t>
   </si>
   <si>
@@ -1369,6 +1736,9 @@
     <t>return 0;</t>
   </si>
   <si>
+    <t>/images/C_Q2.png</t>
+  </si>
+  <si>
     <t>What is the expected output of the code if the user inputs "14"?</t>
   </si>
   <si>
@@ -1378,6 +1748,9 @@
     <t>Negative</t>
   </si>
   <si>
+    <t>/images/C_Q3.png</t>
+  </si>
+  <si>
     <t>What is the result of the program upon execution if the user inputs "6012"?</t>
   </si>
   <si>
@@ -1393,6 +1766,9 @@
     <t>Sum of digits of 6012 is 9</t>
   </si>
   <si>
+    <t>/images/C_Q4.png</t>
+  </si>
+  <si>
     <t>Given the snippet of code, what is the resulting output if the user inputs "121"?</t>
   </si>
   <si>
@@ -1402,6 +1778,9 @@
     <t>121 is odd</t>
   </si>
   <si>
+    <t>/images/C_Q5.png</t>
+  </si>
+  <si>
     <t>If the user inputs "1" first and inputs "3", the result of the program should be "6". What should be placed in the blank to achieve this result?</t>
   </si>
   <si>
@@ -1417,6 +1796,9 @@
     <t>i = start; i &gt;= end; i+</t>
   </si>
   <si>
+    <t>/images/C_Q6.png</t>
+  </si>
+  <si>
     <t>What should be placed in the blank in the code to obtain the reverse of an input "123"?</t>
   </si>
   <si>
@@ -1432,6 +1814,9 @@
     <t>rev = rev*10+rem</t>
   </si>
   <si>
+    <t>/images/C_Q7.png</t>
+  </si>
+  <si>
     <t>If the user inputs the digits 14, 6, and 10 respectively, and the desired output is "The largest among the three numbers is 14", what line of code should be placed in the blank?</t>
   </si>
   <si>
@@ -1447,9 +1832,15 @@
     <t>c &gt; a || c &gt; b</t>
   </si>
   <si>
+    <t>/images/C_Q8.png</t>
+  </si>
+  <si>
     <t>Given the code snippet, what is the expected result if the first number input is to be 2 and the second number is 5?</t>
   </si>
   <si>
+    <t>/images/C_Q9.png</t>
+  </si>
+  <si>
     <t>What is the expected result of the given code if the user input is "2042"?</t>
   </si>
   <si>
@@ -1459,9 +1850,15 @@
     <t>2042 is not a leap year</t>
   </si>
   <si>
+    <t>/images/C_Q10.png</t>
+  </si>
+  <si>
     <t>What is the maximum number of rows in the given code if the user inputs "10"?</t>
   </si>
   <si>
+    <t>/images/C_Q11.png</t>
+  </si>
+  <si>
     <t>What line of code gives an error?</t>
   </si>
   <si>
@@ -1474,6 +1871,9 @@
     <t>scanf("%d", &amp;base);</t>
   </si>
   <si>
+    <t>/images/C_Q12.png</t>
+  </si>
+  <si>
     <t>Spot the error in the code, if there exists any.</t>
   </si>
   <si>
@@ -1486,6 +1886,9 @@
     <t>x /= 10;</t>
   </si>
   <si>
+    <t>/images/C_Q13.png</t>
+  </si>
+  <si>
     <t>Given this program, which line contains an error (if there is any)?</t>
   </si>
   <si>
@@ -1498,6 +1901,9 @@
     <t>console.log(area);</t>
   </si>
   <si>
+    <t>/images/JS_Q1.png</t>
+  </si>
+  <si>
     <t>In the given code, which line/part of the code should be removed so that only the Celsius to Fahrenheit function is called?</t>
   </si>
   <si>
@@ -1513,6 +1919,9 @@
     <t>convertToC(144);</t>
   </si>
   <si>
+    <t>/images/JS_Q2.png</t>
+  </si>
+  <si>
     <t>DogPython</t>
   </si>
   <si>
@@ -1522,6 +1931,9 @@
     <t>DoPython</t>
   </si>
   <si>
+    <t>/images/JS_Q3.png</t>
+  </si>
+  <si>
     <t>What line of code should be placed in the blank to get an output of "Pain"?</t>
   </si>
   <si>
@@ -1537,6 +1949,9 @@
     <t>console.log(fxn("1Pain",0));</t>
   </si>
   <si>
+    <t>/images/JS_Q4.png</t>
+  </si>
+  <si>
     <t>Which line in the given code contains an error?</t>
   </si>
   <si>
@@ -1549,9 +1964,15 @@
     <t>console.log(fxn(14));</t>
   </si>
   <si>
+    <t>/images/JS_Q5.png</t>
+  </si>
+  <si>
     <t>What is the expected result of the program?</t>
   </si>
   <si>
+    <t>/images/JS_Q6.png</t>
+  </si>
+  <si>
     <t>In order for the program to output the factorial of 3, what should be placed in the blank provided?</t>
   </si>
   <si>
@@ -1567,6 +1988,9 @@
     <t>return x * fxn(x-3)</t>
   </si>
   <si>
+    <t>/images/JS_Q7.png</t>
+  </si>
+  <si>
     <t>What is the output of the program given?</t>
   </si>
   <si>
@@ -1579,6 +2003,9 @@
     <t>fun? Having</t>
   </si>
   <si>
+    <t>/images/JS_Q8.png</t>
+  </si>
+  <si>
     <t>What is the result of the given code?</t>
   </si>
   <si>
@@ -1594,6 +2021,9 @@
     <t>Philippines Hong</t>
   </si>
   <si>
+    <t>/images/Python_Q1.png</t>
+  </si>
+  <si>
     <t>If the user inputs a filename of "java.api", what is the expected output of the program?</t>
   </si>
   <si>
@@ -1609,6 +2039,9 @@
     <t>Extension of given filename:</t>
   </si>
   <si>
+    <t>/images/Python_Q2.png</t>
+  </si>
+  <si>
     <t>From the given code, which line contains an error (if there is any)?</t>
   </si>
   <si>
@@ -1624,6 +2057,9 @@
     <t>print("Updated array: "+str(arrays)))</t>
   </si>
   <si>
+    <t>/images/Python_Q3.png</t>
+  </si>
+  <si>
     <t>What should be placed in the blank to complete the code which determines if a number is odd or even?</t>
   </si>
   <si>
@@ -1639,6 +2075,9 @@
     <t>mod = mod % 2</t>
   </si>
   <si>
+    <t>/images/Python_Q4.png</t>
+  </si>
+  <si>
     <t>Which line in the code results in an error?</t>
   </si>
   <si>
@@ -1652,78 +2091,6 @@
   </si>
   <si>
     <t>print(leng(array))</t>
-  </si>
-  <si>
-    <t>/images/C_Q2.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q3.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q4.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q5.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q6.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q7.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q8.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q9.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q10.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q11.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q12.png</t>
-  </si>
-  <si>
-    <t>/images/C_Q13.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q1.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q2.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q3.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q4.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q5.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q6.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q7.png</t>
-  </si>
-  <si>
-    <t>/images/JS_Q8.png</t>
-  </si>
-  <si>
-    <t>/images/Python_Q1.png</t>
-  </si>
-  <si>
-    <t>/images/Python_Q2.png</t>
-  </si>
-  <si>
-    <t>/images/Python_Q3.png</t>
-  </si>
-  <si>
-    <t>/images/Python_Q4.png</t>
   </si>
   <si>
     <t>/images/Python_Q5.png</t>
@@ -1732,7 +2099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1778,7 +2145,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2095,26 +2463,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2187,8 +2552,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2216,8 +2581,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2245,8 +2610,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2274,8 +2639,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2303,8 +2668,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2332,8 +2697,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2361,8 +2726,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2390,8 +2755,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2419,8 +2784,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2448,8 +2813,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2477,8 +2842,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2506,8 +2871,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2535,8 +2900,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2564,8 +2929,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2593,8 +2958,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2622,8 +2987,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2651,8 +3016,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2680,8 +3045,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2709,8 +3074,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2738,8 +3103,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2767,8 +3132,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2796,8 +3161,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2825,8 +3190,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2854,8 +3219,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2883,8 +3248,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2912,8 +3277,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2941,8 +3306,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2970,8 +3335,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2999,8 +3364,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3028,8 +3393,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3057,8 +3422,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3086,8 +3451,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3115,8 +3480,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3144,8 +3509,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3173,8 +3538,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3217,8 +3582,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3261,8 +3626,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3305,8 +3670,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3349,8 +3714,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3393,8 +3758,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -3425,15 +3790,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -3448,33 +3813,36 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>212</v>
       </c>
       <c r="J43" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="N43" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -3489,2417 +3857,3755 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>217</v>
+      </c>
+      <c r="J44" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M44" t="s">
+        <v>216</v>
+      </c>
+      <c r="N44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="J44" t="s">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" t="s">
+        <v>213</v>
+      </c>
+      <c r="K45" t="s">
+        <v>214</v>
+      </c>
+      <c r="L45" t="s">
+        <v>215</v>
+      </c>
+      <c r="M45" t="s">
+        <v>216</v>
+      </c>
+      <c r="N45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>219</v>
+      </c>
+      <c r="J46" t="s">
+        <v>213</v>
+      </c>
+      <c r="K46" t="s">
+        <v>214</v>
+      </c>
+      <c r="L46" t="s">
+        <v>215</v>
+      </c>
+      <c r="M46" t="s">
+        <v>216</v>
+      </c>
+      <c r="N46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>221</v>
+      </c>
+      <c r="N47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>221</v>
+      </c>
+      <c r="N48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" t="s">
+        <v>227</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>228</v>
+      </c>
+      <c r="N49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
         <v>188</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K50" t="s">
         <v>189</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L50" t="s">
         <v>190</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M50" t="s">
         <v>191</v>
       </c>
-      <c r="N44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="N50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>188</v>
+      </c>
+      <c r="K51" t="s">
+        <v>189</v>
+      </c>
+      <c r="L51" t="s">
+        <v>190</v>
+      </c>
+      <c r="M51" t="s">
+        <v>191</v>
+      </c>
+      <c r="N51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>230</v>
+      </c>
+      <c r="K52" t="s">
+        <v>231</v>
+      </c>
+      <c r="L52" t="s">
+        <v>232</v>
+      </c>
+      <c r="M52" t="s">
+        <v>233</v>
+      </c>
+      <c r="N52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>235</v>
+      </c>
+      <c r="K53" t="s">
+        <v>236</v>
+      </c>
+      <c r="L53" t="s">
+        <v>237</v>
+      </c>
+      <c r="M53" t="s">
+        <v>238</v>
+      </c>
+      <c r="N53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54" t="s">
+        <v>241</v>
+      </c>
+      <c r="L54" t="s">
+        <v>242</v>
+      </c>
+      <c r="M54" t="s">
+        <v>243</v>
+      </c>
+      <c r="N54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
+        <v>245</v>
+      </c>
+      <c r="K55" t="s">
+        <v>246</v>
+      </c>
+      <c r="L55" t="s">
+        <v>247</v>
+      </c>
+      <c r="M55" t="s">
+        <v>248</v>
+      </c>
+      <c r="N55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>250</v>
+      </c>
+      <c r="K56" t="s">
+        <v>251</v>
+      </c>
+      <c r="L56" t="s">
+        <v>252</v>
+      </c>
+      <c r="M56" t="s">
+        <v>253</v>
+      </c>
+      <c r="N56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" t="s">
+        <v>255</v>
+      </c>
+      <c r="K57" t="s">
+        <v>256</v>
+      </c>
+      <c r="L57" t="s">
+        <v>257</v>
+      </c>
+      <c r="M57" t="s">
+        <v>258</v>
+      </c>
+      <c r="N57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="s">
+        <v>260</v>
+      </c>
+      <c r="K58" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58" t="s">
+        <v>262</v>
+      </c>
+      <c r="M58" t="s">
+        <v>263</v>
+      </c>
+      <c r="N58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" t="s">
+        <v>266</v>
+      </c>
+      <c r="L59" t="s">
+        <v>267</v>
+      </c>
+      <c r="M59" t="s">
+        <v>268</v>
+      </c>
+      <c r="N59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>270</v>
+      </c>
+      <c r="K60" t="s">
+        <v>271</v>
+      </c>
+      <c r="L60" t="s">
+        <v>272</v>
+      </c>
+      <c r="M60" t="s">
+        <v>273</v>
+      </c>
+      <c r="N60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>275</v>
+      </c>
+      <c r="K61" t="s">
+        <v>276</v>
+      </c>
+      <c r="L61" t="s">
+        <v>277</v>
+      </c>
+      <c r="M61" t="s">
+        <v>278</v>
+      </c>
+      <c r="N61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>280</v>
+      </c>
+      <c r="K62" t="s">
+        <v>281</v>
+      </c>
+      <c r="L62" t="s">
+        <v>282</v>
+      </c>
+      <c r="M62" t="s">
+        <v>283</v>
+      </c>
+      <c r="N62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>166</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C63" t="s">
         <v>193</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D63" t="s">
         <v>194</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E63" t="s">
         <v>195</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F63" t="s">
         <v>196</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G63" t="s">
         <v>197</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H63" t="s">
         <v>11</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I63" t="s">
         <v>198</v>
       </c>
-      <c r="N45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="N63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>166</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C64" t="s">
         <v>199</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D64" t="s">
         <v>194</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E64" t="s">
         <v>195</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F64" t="s">
         <v>196</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G64" t="s">
         <v>197</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H64" t="s">
         <v>11</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I64" t="s">
         <v>198</v>
       </c>
-      <c r="N46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="N64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" t="s">
+        <v>286</v>
+      </c>
+      <c r="F65" t="s">
+        <v>287</v>
+      </c>
+      <c r="G65" t="s">
+        <v>288</v>
+      </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>290</v>
+      </c>
+      <c r="N65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>289</v>
+      </c>
+      <c r="D66" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" t="s">
+        <v>291</v>
+      </c>
+      <c r="N66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67" t="s">
+        <v>301</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>297</v>
+      </c>
+      <c r="N67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" t="s">
+        <v>307</v>
+      </c>
+      <c r="G68" t="s">
+        <v>308</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>303</v>
+      </c>
+      <c r="N68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>304</v>
+      </c>
+      <c r="N69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>311</v>
+      </c>
+      <c r="N70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>167</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C71" t="s">
         <v>200</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D71" t="s">
         <v>201</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E71" t="s">
         <v>202</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F71" t="s">
         <v>203</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G71" t="s">
         <v>204</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H71" t="s">
         <v>5</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I71" t="s">
         <v>205</v>
       </c>
-      <c r="N47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="N71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>167</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C72" t="s">
         <v>206</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D72" t="s">
         <v>207</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E72" t="s">
         <v>208</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F72" t="s">
         <v>209</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G72" t="s">
         <v>210</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H72" t="s">
         <v>7</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I72" t="s">
         <v>211</v>
       </c>
-      <c r="N48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="N72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>316</v>
+      </c>
+      <c r="D73" t="s">
+        <v>320</v>
+      </c>
+      <c r="E73" t="s">
+        <v>321</v>
+      </c>
+      <c r="F73" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
+        <v>323</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>317</v>
+      </c>
+      <c r="N73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>318</v>
+      </c>
+      <c r="N74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" t="s">
+        <v>331</v>
+      </c>
+      <c r="F75" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" t="s">
+        <v>319</v>
+      </c>
+      <c r="N75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D111" s="1">
+        <v>144156</v>
+      </c>
+      <c r="E111" s="1">
+        <v>300</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D114" s="1">
+        <v>10101010101</v>
+      </c>
+      <c r="E114" s="1">
+        <v>102030</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" s="3">
+        <v>13579</v>
+      </c>
+      <c r="E115" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1357911</v>
+      </c>
+      <c r="G115" s="1">
+        <v>12345678910</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D132" s="1">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1">
+        <v>14</v>
+      </c>
+      <c r="F132" s="1">
+        <v>12</v>
+      </c>
+      <c r="G132" s="1">
+        <v>5</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D134" s="1">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1">
+        <v>9</v>
+      </c>
+      <c r="F134" s="1">
+        <v>10</v>
+      </c>
+      <c r="G134" s="1">
+        <v>11</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D142" s="1">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1">
+        <v>26</v>
+      </c>
+      <c r="F142" s="1">
+        <v>36</v>
+      </c>
+      <c r="G142" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="H142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F49" t="s">
-        <v>213</v>
-      </c>
-      <c r="G49" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="C145" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" t="s">
-        <v>218</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51" t="s">
-        <v>223</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" t="s">
-        <v>226</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="I147" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H52" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" t="s">
-        <v>228</v>
-      </c>
-      <c r="E53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" t="s">
-        <v>213</v>
-      </c>
-      <c r="G53" t="s">
-        <v>229</v>
-      </c>
-      <c r="H53" t="s">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" t="s">
-        <v>232</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G54" t="s">
-        <v>234</v>
-      </c>
-      <c r="H54" t="s">
-        <v>9</v>
-      </c>
-      <c r="N54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F56" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="C148" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" t="s">
-        <v>251</v>
-      </c>
-      <c r="F58" t="s">
-        <v>252</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="I148" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" t="s">
-        <v>254</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E59" t="s">
-        <v>256</v>
-      </c>
-      <c r="F59" t="s">
-        <v>257</v>
-      </c>
-      <c r="G59" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" t="s">
-        <v>259</v>
-      </c>
-      <c r="D60" t="s">
-        <v>260</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F60" t="s">
-        <v>262</v>
-      </c>
-      <c r="G60" t="s">
-        <v>263</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" t="s">
-        <v>265</v>
-      </c>
-      <c r="E61" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" t="s">
-        <v>268</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" t="s">
-        <v>270</v>
-      </c>
-      <c r="E62" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>273</v>
-      </c>
-      <c r="D63" t="s">
-        <v>274</v>
-      </c>
-      <c r="E63" t="s">
-        <v>275</v>
-      </c>
-      <c r="F63" t="s">
-        <v>276</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" t="s">
-        <v>278</v>
-      </c>
-      <c r="D64" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F64" t="s">
-        <v>281</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" t="s">
-        <v>283</v>
-      </c>
-      <c r="D65" t="s">
-        <v>238</v>
-      </c>
-      <c r="E65" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" t="s">
-        <v>284</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" t="s">
-        <v>286</v>
-      </c>
-      <c r="D66" t="s">
-        <v>285</v>
-      </c>
-      <c r="E66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" t="s">
-        <v>287</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
-        <v>289</v>
-      </c>
-      <c r="D67" t="s">
-        <v>290</v>
-      </c>
-      <c r="E67" t="s">
-        <v>238</v>
-      </c>
-      <c r="F67" t="s">
-        <v>291</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>293</v>
-      </c>
-      <c r="D68" t="s">
-        <v>294</v>
-      </c>
-      <c r="E68" t="s">
-        <v>295</v>
-      </c>
-      <c r="F68" t="s">
-        <v>296</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" t="s">
-        <v>300</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G69" t="s">
-        <v>302</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" t="s">
-        <v>303</v>
-      </c>
-      <c r="D70" t="s">
-        <v>304</v>
-      </c>
-      <c r="E70" t="s">
-        <v>305</v>
-      </c>
-      <c r="F70" t="s">
-        <v>306</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" t="s">
-        <v>308</v>
-      </c>
-      <c r="D71" t="s">
-        <v>309</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F71" t="s">
-        <v>311</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" t="s">
-        <v>313</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E72" t="s">
-        <v>315</v>
-      </c>
-      <c r="F72" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" t="s">
-        <v>317</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>318</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E73" t="s">
-        <v>319</v>
-      </c>
-      <c r="F73" t="s">
-        <v>310</v>
-      </c>
-      <c r="G73" t="s">
-        <v>320</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" t="s">
-        <v>321</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F74" t="s">
-        <v>324</v>
-      </c>
-      <c r="G74" t="s">
-        <v>325</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" t="s">
-        <v>326</v>
-      </c>
-      <c r="D75" t="s">
-        <v>327</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F75" t="s">
-        <v>329</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" t="s">
-        <v>330</v>
-      </c>
-      <c r="D76" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" t="s">
-        <v>334</v>
-      </c>
-      <c r="D77" t="s">
-        <v>335</v>
-      </c>
-      <c r="E77" t="s">
-        <v>336</v>
-      </c>
-      <c r="F77" t="s">
-        <v>337</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" t="s">
-        <v>339</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E78" t="s">
-        <v>341</v>
-      </c>
-      <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" t="s">
-        <v>342</v>
-      </c>
-      <c r="D79" t="s">
-        <v>343</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F79" t="s">
-        <v>345</v>
-      </c>
-      <c r="G79" t="s">
-        <v>346</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" t="s">
-        <v>347</v>
-      </c>
-      <c r="D80" t="s">
-        <v>343</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F80" t="s">
-        <v>345</v>
-      </c>
-      <c r="G80" t="s">
-        <v>346</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" t="s">
-        <v>348</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" t="s">
-        <v>353</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E82" t="s">
-        <v>355</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G82" t="s">
-        <v>357</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" t="s">
-        <v>358</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E83" t="s">
-        <v>360</v>
-      </c>
-      <c r="F83" t="s">
-        <v>361</v>
-      </c>
-      <c r="G83" t="s">
-        <v>362</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" t="s">
-        <v>363</v>
-      </c>
-      <c r="D84">
-        <v>144156</v>
-      </c>
-      <c r="E84">
-        <v>300</v>
-      </c>
-      <c r="F84" t="s">
-        <v>364</v>
-      </c>
-      <c r="G84" t="s">
-        <v>365</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" t="s">
-        <v>414</v>
-      </c>
-      <c r="N84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" t="s">
-        <v>367</v>
-      </c>
-      <c r="E85" t="s">
-        <v>368</v>
-      </c>
-      <c r="F85" t="s">
-        <v>369</v>
-      </c>
-      <c r="G85" t="s">
-        <v>223</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" t="s">
-        <v>416</v>
-      </c>
-      <c r="N85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" t="s">
-        <v>370</v>
-      </c>
-      <c r="D86" t="s">
-        <v>371</v>
-      </c>
-      <c r="E86" t="s">
-        <v>372</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G86" t="s">
-        <v>374</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" t="s">
-        <v>417</v>
-      </c>
-      <c r="N86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" t="s">
-        <v>375</v>
-      </c>
-      <c r="D87">
-        <v>10101010101</v>
-      </c>
-      <c r="E87">
-        <v>102030</v>
-      </c>
-      <c r="F87" t="s">
-        <v>376</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" t="s">
-        <v>418</v>
-      </c>
-      <c r="N87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" t="s">
-        <v>378</v>
-      </c>
-      <c r="D88" s="2">
-        <v>13579</v>
-      </c>
-      <c r="E88">
-        <v>123456789</v>
-      </c>
-      <c r="F88">
-        <v>1357911</v>
-      </c>
-      <c r="G88">
-        <v>12345678910</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I88" t="s">
-        <v>419</v>
-      </c>
-      <c r="N88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>364</v>
-      </c>
-      <c r="G89" t="s">
-        <v>365</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" t="s">
-        <v>420</v>
-      </c>
-      <c r="N89" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" t="s">
-        <v>380</v>
-      </c>
-      <c r="D90" t="s">
-        <v>381</v>
-      </c>
-      <c r="E90" t="s">
-        <v>382</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G90" t="s">
-        <v>384</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" t="s">
-        <v>421</v>
-      </c>
-      <c r="N90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" t="s">
-        <v>385</v>
-      </c>
-      <c r="D91" t="s">
-        <v>386</v>
-      </c>
-      <c r="E91" t="s">
-        <v>387</v>
-      </c>
-      <c r="F91" t="s">
-        <v>388</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" t="s">
-        <v>422</v>
-      </c>
-      <c r="N91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" t="s">
-        <v>390</v>
-      </c>
-      <c r="D92" t="s">
-        <v>391</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F92" t="s">
-        <v>393</v>
-      </c>
-      <c r="G92" t="s">
-        <v>394</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" t="s">
-        <v>423</v>
-      </c>
-      <c r="N92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93" t="s">
-        <v>395</v>
-      </c>
-      <c r="D93" t="s">
-        <v>396</v>
-      </c>
-      <c r="E93" t="s">
-        <v>397</v>
-      </c>
-      <c r="F93" t="s">
-        <v>398</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" t="s">
-        <v>424</v>
-      </c>
-      <c r="N93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" t="s">
-        <v>400</v>
-      </c>
-      <c r="D94" t="s">
-        <v>401</v>
-      </c>
-      <c r="E94" t="s">
-        <v>402</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G94" t="s">
-        <v>404</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" t="s">
-        <v>425</v>
-      </c>
-      <c r="N94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" t="s">
-        <v>405</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I95" t="s">
-        <v>426</v>
-      </c>
-      <c r="N95" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>165</v>
-      </c>
-      <c r="C96" t="s">
-        <v>410</v>
-      </c>
-      <c r="D96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E96" t="s">
-        <v>412</v>
-      </c>
-      <c r="F96" t="s">
-        <v>413</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" t="s">
-        <v>427</v>
-      </c>
-      <c r="N96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>428</v>
-      </c>
-      <c r="D97" t="s">
-        <v>429</v>
-      </c>
-      <c r="E97" t="s">
-        <v>430</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G97" t="s">
-        <v>432</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" t="s">
-        <v>415</v>
-      </c>
-      <c r="N97" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" t="s">
-        <v>433</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E98" t="s">
-        <v>435</v>
-      </c>
-      <c r="F98" t="s">
-        <v>436</v>
-      </c>
-      <c r="G98" t="s">
-        <v>437</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I98" t="s">
-        <v>533</v>
-      </c>
-      <c r="N98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D99" t="s">
-        <v>439</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F99" t="s">
-        <v>365</v>
-      </c>
-      <c r="G99" t="s">
-        <v>364</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I99" t="s">
-        <v>534</v>
-      </c>
-      <c r="N99" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
-        <v>441</v>
-      </c>
-      <c r="D100" t="s">
-        <v>442</v>
-      </c>
-      <c r="E100" t="s">
-        <v>443</v>
-      </c>
-      <c r="F100" t="s">
-        <v>444</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" t="s">
-        <v>535</v>
-      </c>
-      <c r="N100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>446</v>
-      </c>
-      <c r="D101" t="s">
-        <v>447</v>
-      </c>
-      <c r="E101" t="s">
-        <v>448</v>
-      </c>
-      <c r="F101" t="s">
-        <v>364</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" t="s">
-        <v>536</v>
-      </c>
-      <c r="N101" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>449</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E102" t="s">
-        <v>451</v>
-      </c>
-      <c r="F102" t="s">
-        <v>452</v>
-      </c>
-      <c r="G102" t="s">
-        <v>453</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" t="s">
-        <v>537</v>
-      </c>
-      <c r="N102" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>454</v>
-      </c>
-      <c r="D103" t="s">
-        <v>455</v>
-      </c>
-      <c r="E103" t="s">
-        <v>456</v>
-      </c>
-      <c r="F103" t="s">
-        <v>457</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" t="s">
-        <v>538</v>
-      </c>
-      <c r="N103" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" t="s">
-        <v>459</v>
-      </c>
-      <c r="D104" t="s">
-        <v>460</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F104" t="s">
-        <v>462</v>
-      </c>
-      <c r="G104" t="s">
-        <v>463</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" t="s">
-        <v>539</v>
-      </c>
-      <c r="N104" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" t="s">
-        <v>464</v>
-      </c>
-      <c r="D105">
-        <v>9</v>
-      </c>
-      <c r="E105">
-        <v>14</v>
-      </c>
-      <c r="F105">
-        <v>12</v>
-      </c>
-      <c r="G105">
-        <v>5</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" t="s">
-        <v>540</v>
-      </c>
-      <c r="N105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" t="s">
-        <v>465</v>
-      </c>
-      <c r="D106" t="s">
-        <v>466</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F106" t="s">
-        <v>364</v>
-      </c>
-      <c r="G106" t="s">
-        <v>365</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" t="s">
-        <v>541</v>
-      </c>
-      <c r="N106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" t="s">
-        <v>468</v>
-      </c>
-      <c r="D107">
-        <v>8</v>
-      </c>
-      <c r="E107">
-        <v>9</v>
-      </c>
-      <c r="F107">
-        <v>10</v>
-      </c>
-      <c r="G107">
-        <v>11</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" t="s">
-        <v>542</v>
-      </c>
-      <c r="N107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>469</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E108" t="s">
-        <v>471</v>
-      </c>
-      <c r="F108" t="s">
-        <v>472</v>
-      </c>
-      <c r="G108" t="s">
-        <v>404</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" t="s">
-        <v>543</v>
-      </c>
-      <c r="N108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>473</v>
-      </c>
-      <c r="D109" t="s">
-        <v>474</v>
-      </c>
-      <c r="E109" t="s">
-        <v>475</v>
-      </c>
-      <c r="F109" t="s">
-        <v>476</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" t="s">
-        <v>544</v>
-      </c>
-      <c r="N109" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" t="s">
-        <v>477</v>
-      </c>
-      <c r="D110" t="s">
-        <v>478</v>
-      </c>
-      <c r="E110" t="s">
-        <v>479</v>
-      </c>
-      <c r="F110" t="s">
-        <v>480</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" t="s">
-        <v>545</v>
-      </c>
-      <c r="N110" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>166</v>
-      </c>
-      <c r="C111" t="s">
-        <v>481</v>
-      </c>
-      <c r="D111" t="s">
-        <v>482</v>
-      </c>
-      <c r="E111" t="s">
-        <v>483</v>
-      </c>
-      <c r="F111" t="s">
-        <v>484</v>
-      </c>
-      <c r="G111" t="s">
-        <v>485</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" t="s">
-        <v>546</v>
-      </c>
-      <c r="N111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" t="s">
-        <v>366</v>
-      </c>
-      <c r="D112" t="s">
-        <v>167</v>
-      </c>
-      <c r="E112" t="s">
-        <v>486</v>
-      </c>
-      <c r="F112" t="s">
-        <v>487</v>
-      </c>
-      <c r="G112" t="s">
-        <v>488</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" t="s">
-        <v>547</v>
-      </c>
-      <c r="N112" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" t="s">
-        <v>489</v>
-      </c>
-      <c r="D113" t="s">
-        <v>490</v>
-      </c>
-      <c r="E113" t="s">
-        <v>491</v>
-      </c>
-      <c r="F113" t="s">
-        <v>492</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" t="s">
-        <v>548</v>
-      </c>
-      <c r="N113" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>166</v>
-      </c>
-      <c r="C114" t="s">
-        <v>494</v>
-      </c>
-      <c r="D114" t="s">
-        <v>495</v>
-      </c>
-      <c r="E114" t="s">
-        <v>496</v>
-      </c>
-      <c r="F114" t="s">
-        <v>497</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" t="s">
-        <v>549</v>
-      </c>
-      <c r="N114" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" t="s">
-        <v>498</v>
-      </c>
-      <c r="D115">
-        <v>14</v>
-      </c>
-      <c r="E115">
-        <v>26</v>
-      </c>
-      <c r="F115">
-        <v>36</v>
-      </c>
-      <c r="G115">
-        <v>48</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" t="s">
-        <v>550</v>
-      </c>
-      <c r="N115" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>166</v>
-      </c>
-      <c r="C116" t="s">
-        <v>499</v>
-      </c>
-      <c r="D116" t="s">
-        <v>500</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F116" t="s">
-        <v>502</v>
-      </c>
-      <c r="G116" t="s">
-        <v>503</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I116" t="s">
-        <v>551</v>
-      </c>
-      <c r="N116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" t="s">
-        <v>504</v>
-      </c>
-      <c r="D117" t="s">
-        <v>505</v>
-      </c>
-      <c r="E117" t="s">
-        <v>506</v>
-      </c>
-      <c r="F117" t="s">
-        <v>507</v>
-      </c>
-      <c r="G117" t="s">
-        <v>365</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" t="s">
-        <v>552</v>
-      </c>
-      <c r="N117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>167</v>
-      </c>
-      <c r="C118" t="s">
-        <v>508</v>
-      </c>
-      <c r="D118" t="s">
-        <v>509</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F118" t="s">
-        <v>511</v>
-      </c>
-      <c r="G118" t="s">
-        <v>512</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" t="s">
-        <v>553</v>
-      </c>
-      <c r="N118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" t="s">
-        <v>513</v>
-      </c>
-      <c r="D119" t="s">
-        <v>514</v>
-      </c>
-      <c r="E119" t="s">
-        <v>515</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G119" t="s">
-        <v>517</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119" t="s">
-        <v>554</v>
-      </c>
-      <c r="N119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>167</v>
-      </c>
-      <c r="C120" t="s">
-        <v>518</v>
-      </c>
-      <c r="D120" t="s">
-        <v>519</v>
-      </c>
-      <c r="E120" t="s">
-        <v>520</v>
-      </c>
-      <c r="F120" t="s">
-        <v>521</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" t="s">
-        <v>555</v>
-      </c>
-      <c r="N120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" t="s">
-        <v>523</v>
-      </c>
-      <c r="D121" t="s">
-        <v>524</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F121" t="s">
-        <v>526</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I121" t="s">
-        <v>556</v>
-      </c>
-      <c r="N121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" t="s">
-        <v>528</v>
-      </c>
-      <c r="D122" t="s">
-        <v>529</v>
-      </c>
-      <c r="E122" t="s">
-        <v>530</v>
-      </c>
-      <c r="F122" t="s">
-        <v>531</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" t="s">
-        <v>557</v>
-      </c>
-      <c r="N122" t="s">
+      <c r="I149" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>